--- a/fuentes/contenidos/grado10/guion02/EsqueletoGuion_CN_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EsqueletoGuion_CN_10_02_CO.xlsx
@@ -13,12 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="83">
   <si>
     <t>TITULO</t>
   </si>
@@ -107,18 +107,18 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>4º ESO</t>
-  </si>
-  <si>
     <t>FQ</t>
   </si>
   <si>
+    <t>La cinemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asocia conceptos principales de la cinemática con su significado </t>
+  </si>
+  <si>
     <t>FQ_10_01</t>
   </si>
   <si>
-    <t>Asocia conceptos principales de la cinemática con su significado</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -131,58 +131,67 @@
     <t>RM_01_01_CO</t>
   </si>
   <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El movimiento </t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>El movimiento rectilíneo uniforme</t>
+  </si>
+  <si>
+    <t>Calcula las magnitudes del movimiento rectilíneo uniforme</t>
+  </si>
+  <si>
+    <t>Recurso M7A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El movimiento rectilíneo uniforme</t>
+  </si>
+  <si>
+    <t>Aprende sobre la velocidad, la rapidez y la aceleración</t>
+  </si>
+  <si>
+    <t>El movimiento rectilíneo uniformemente acelerado</t>
+  </si>
+  <si>
+    <t>Resuelve problemas sobre el MRUA</t>
+  </si>
+  <si>
+    <t>Recurso M3A-02</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>El movimiento rectilíneo uniforme</t>
-  </si>
-  <si>
-    <t>Calcula las magnitudes del movimiento rectilíneo uniforme</t>
-  </si>
-  <si>
-    <t>Recurso M7A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: El movimiento rectilíneo uniforme</t>
-  </si>
-  <si>
-    <t>Actividad que plantea profundizar en los conceptos de velocidad, rapidez y aceleración</t>
-  </si>
-  <si>
-    <t>El movimiento rectilíneo uniformemente acelerado</t>
-  </si>
-  <si>
-    <t>Resuelve problemas sobre el MRUA</t>
-  </si>
-  <si>
-    <t>Recurso M3A-02</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
+    <t>La gravedad</t>
+  </si>
+  <si>
+    <t>Comprende la caída libre de los cuerpos</t>
+  </si>
+  <si>
+    <t>FQ_10_04</t>
+  </si>
+  <si>
+    <t>La caída libre de los cuerpos</t>
+  </si>
+  <si>
+    <t>Realiza cálculos sobre la caída libre</t>
+  </si>
+  <si>
+    <t>Los tipos de movimiento</t>
+  </si>
+  <si>
+    <t>Recurso M4A-03</t>
   </si>
   <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
-    <t>Comprende la caída libre de los cuerpos</t>
-  </si>
-  <si>
-    <t>La caída libre de los cuerpos</t>
-  </si>
-  <si>
-    <t>Realiza cálculos sobre la caída libre</t>
-  </si>
-  <si>
-    <t>Los tipos de movimiento</t>
-  </si>
-  <si>
-    <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
+    <t>Recurso M4A-04</t>
   </si>
   <si>
     <t>Competencias: identificación de un movimiento</t>
@@ -194,9 +203,6 @@
     <t>Recurso F13B-01</t>
   </si>
   <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
@@ -215,7 +221,7 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>M4a</t>
+    <t>M5a</t>
   </si>
   <si>
     <t>si</t>
@@ -258,9 +264,6 @@
   </si>
   <si>
     <t>Competencias</t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
   </si>
   <si>
     <t>Más información</t>
@@ -792,8 +795,8 @@
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375"/>
@@ -845,20 +848,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -886,19 +889,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -925,40 +928,40 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -985,80 +988,80 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1125,80 +1128,80 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1215,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -1235,7 +1238,7 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1245,40 +1248,40 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
+      <c r="A23">
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
+      <c r="A24">
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1286,25 +1289,40 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
       <c r="F26">
         <v>25</v>
       </c>
@@ -1314,16 +1332,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1368,44 +1386,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
       </c>
       <c r="C3">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1444,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625"/>
     <col min="5" max="1025" width="10.7109375"/>
@@ -1451,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1513,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,7 +1535,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,7 +1546,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,7 +1557,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,7 +1568,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,7 +1590,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,7 +1612,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +1623,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,10 +1631,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,10 +1642,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,10 +1653,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,10 +1664,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,10 +1686,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,18 +1719,21 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1741,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1752,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,10 +1763,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,10 +1774,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1782,7 +1803,7 @@
     <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="10.7109375" style="8"/>
     <col min="1026" max="16384" width="9" style="8"/>
@@ -1822,10 +1843,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,10 +1876,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,16 +1887,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1883,13 +1904,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,13 +1918,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,13 +1932,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,13 +1946,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1939,19 +1960,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1959,13 +1980,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,13 +1994,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1987,13 +2008,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,13 +2022,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2015,19 +2036,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2035,13 +2056,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2049,13 +2070,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,13 +2084,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,13 +2098,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2091,19 +2112,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2111,10 +2132,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2122,10 +2143,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,10 +2154,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,10 +2165,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,16 +2176,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2172,13 +2193,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,13 +2207,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2200,13 +2221,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,13 +2235,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2228,19 +2249,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,13 +2269,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,13 +2283,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,13 +2297,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,13 +2311,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2304,19 +2325,19 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,13 +2345,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2338,13 +2359,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,13 +2373,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,13 +2387,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,19 +2401,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2400,13 +2421,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,13 +2435,13 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2428,13 +2449,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2442,13 +2463,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2456,19 +2477,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2479,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2490,7 +2511,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2501,7 +2522,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2512,7 +2533,7 @@
         <v>44</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2523,13 +2544,13 @@
         <v>44</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2551,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,7 +2583,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,7 +2594,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,13 +2605,13 @@
         <v>44</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2623,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,7 +2655,7 @@
         <v>44</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,13 +2666,13 @@
         <v>44</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2662,10 +2683,10 @@
         <v>44</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2676,10 +2697,10 @@
         <v>44</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2690,10 +2711,10 @@
         <v>44</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2704,10 +2725,10 @@
         <v>44</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,16 +2739,16 @@
         <v>44</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,10 +2759,10 @@
         <v>44</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,10 +2773,10 @@
         <v>44</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2766,10 +2787,10 @@
         <v>44</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2780,10 +2801,10 @@
         <v>44</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,16 +2815,16 @@
         <v>44</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,10 +2835,10 @@
         <v>44</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,10 +2849,10 @@
         <v>44</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,10 +2863,10 @@
         <v>44</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2856,10 +2877,10 @@
         <v>44</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,16 +2891,16 @@
         <v>44</v>
       </c>
       <c r="D76" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2887,10 +2908,10 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,10 +2919,10 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,10 +2941,10 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,16 +2952,16 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,10 +2969,10 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,10 +2980,10 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,10 +2991,10 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2981,10 +3002,10 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2992,16 +3013,16 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3009,10 +3030,10 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,10 +3041,10 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,10 +3052,10 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3042,10 +3063,10 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3053,16 +3074,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3070,10 +3091,10 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3081,10 +3102,10 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3092,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,10 +3124,10 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3114,16 +3135,16 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,13 +3152,10 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3145,13 +3163,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3159,13 +3174,10 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,13 +3185,10 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3187,19 +3196,13 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3207,13 +3210,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3221,13 +3224,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,13 +3238,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,13 +3252,19 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>71</v>
+      <c r="H105" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3263,19 +3272,13 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,10 +3286,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3294,10 +3300,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3305,10 +3314,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3316,10 +3328,19 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,16 +3348,10 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,10 +3359,10 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3355,10 +3370,10 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,10 +3381,10 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,10 +3392,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3388,16 +3403,10 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,10 +3414,10 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3416,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,10 +3436,16 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3438,10 +3453,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,16 +3464,10 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3466,10 +3475,10 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,10 +3486,10 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,10 +3497,16 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3499,10 +3514,10 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,13 +3525,10 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,10 +3536,10 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3535,10 +3547,10 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,10 +3558,16 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3557,10 +3575,13 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3568,47 +3589,16 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
